--- a/medicine/Sexualité et sexologie/Sillon_intermammaire/Sillon_intermammaire.xlsx
+++ b/medicine/Sexualité et sexologie/Sillon_intermammaire/Sillon_intermammaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sillon intermammaire est, en anatomie humaine, l'espace de la poitrine de la femme compris entre les deux seins. Dans le langage courant, cette région est parfois désignée par entre-deux-seins ou entre-seins.[réf. nécessaire]
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,12 +553,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sexualité
-Le sillon intermammaire, lorsqu'il n'est pas couvert par un vêtement (exemple du décolleté), constitue une zone du corps qui peut jouer le rôle d'attrait sexuel. 
+          <t>Sexualité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sillon intermammaire, lorsqu'il n'est pas couvert par un vêtement (exemple du décolleté), constitue une zone du corps qui peut jouer le rôle d'attrait sexuel. 
 Il est également central dans le cadre de pratiques sexuelles, telles la branlette espagnole. 
-Il faut cesser de sexualiser les seins. C’est avant tout et en premier lieu là où se situe le lait maternel pour les nourrissons. [1] 
-Dans la littérature
-Cet espace est régulièrement évoqué dans la littérature. Dans Vipère au poing, il est utilisé par la mère d'Hervé Bazin pour maintenir les clés hors de portée des enfants : « La clef suprême, celle qui défendait toutes les autres, celle de l'armoire anglaise, ne quitta plus l'entre-deux-seins de la maîtresse de maison. »
+Il faut cesser de sexualiser les seins. C’est avant tout et en premier lieu là où se situe le lait maternel pour les nourrissons.  
 </t>
         </is>
       </c>
@@ -570,10 +587,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Aspects culturels</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dans la littérature</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet espace est régulièrement évoqué dans la littérature. Dans Vipère au poing, il est utilisé par la mère d'Hervé Bazin pour maintenir les clés hors de portée des enfants : « La clef suprême, celle qui défendait toutes les autres, celle de l'armoire anglaise, ne quitta plus l'entre-deux-seins de la maîtresse de maison. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sillon_intermammaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sillon_intermammaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>En photographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En photographie, sa mise en valeur est un élément important du portrait féminin et de la photographie érotique.
 </t>
